--- a/Tables/Sources/gameplay/Tower/TowerEnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Tower/TowerEnemyConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Tower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178DFF40-8DF6-413C-A04C-4C5761ACCCF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004D71F8-6EB8-45AB-BAEE-35EAE6F4B402}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="1500" windowWidth="20664" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>敌人头像</t>
   </si>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>104;105;106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -92,7 +88,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>丐帮</t>
+    <t>血刀门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葵花剑派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星宿派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙象宗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨堂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行僵门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太行马贼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负剑猿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南蛮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倭寇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9502;9503;9504</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9506;9507;9508</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9510;9511;9512</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9514;9515;9516</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9518;9519;9520</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9522;9523;9524</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9526;9527;9528</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9530;9531;9532</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9534;9535;9536</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9538;9539;9540</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +534,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -479,7 +551,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -519,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -539,7 +611,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -559,14 +631,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>101</v>
+        <v>9501</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -578,10 +650,10 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>102</v>
+        <v>9505</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -589,14 +661,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>103</v>
+        <v>9509</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -604,14 +676,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>201</v>
+        <v>9513</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -619,14 +691,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>202</v>
+        <v>9517</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -634,13 +706,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>203</v>
+        <v>9521</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -648,13 +720,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>301</v>
+        <v>9525</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -662,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>302</v>
+        <v>9529</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -676,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2">
-        <v>303</v>
+        <v>9533</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -690,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
-        <v>401</v>
+        <v>9537</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Tower/TowerEnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Tower/TowerEnemyConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Tower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004D71F8-6EB8-45AB-BAEE-35EAE6F4B402}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A21E1C-E95F-4B2C-882A-3664EB88962B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="1500" windowWidth="20664" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>敌人头像</t>
   </si>
@@ -88,83 +88,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>血刀门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>葵花剑派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星宿派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙象宗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨堂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行僵门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>太行马贼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>负剑猿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>南蛮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>倭寇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9502;9503;9504</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9506;9507;9508</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9510;9511;9512</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9514;9515;9516</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9518;9519;9520</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9522;9523;9524</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9526;9527;9528</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9530;9531;9532</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9534;9535;9536</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9538;9539;9540</t>
+    <t>104;105;106</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>204;205;206</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>304;305;306</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>404;405;403</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>504;505;503</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>604;605;603</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>804;805;806</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>704;705;706</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丐帮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武当</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>峨眉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔教</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +518,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -631,14 +615,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>9501</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -646,14 +630,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>9505</v>
+        <v>201</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -661,14 +645,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>9509</v>
+        <v>301</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -676,14 +660,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>9513</v>
+        <v>401</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -691,14 +675,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>9517</v>
+        <v>501</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -706,13 +690,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2">
+        <v>601</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9521</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -720,13 +704,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
-        <v>9525</v>
+        <v>702</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,13 +718,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
-        <v>9529</v>
+        <v>801</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -750,11 +734,12 @@
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>9533</v>
+        <v>101</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,11 +749,12 @@
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>9537</v>
+        <v>201</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Tower/TowerEnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Tower/TowerEnemyConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Tower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A21E1C-E95F-4B2C-882A-3664EB88962B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4F1753-E52B-404A-AA60-F64A84D43583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10488" yWindow="972" windowWidth="20664" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>敌人头像</t>
   </si>
@@ -149,6 +149,38 @@
   </si>
   <si>
     <t>逍遥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiaobangzhu;gaibang1;gaibang2;gaibang3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuankongfangzhang;shaolin1;shaolin2;shaolin3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangzhenren;wudang1;wudang2;wudang3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiubujun;huashan1;huashan2;huashan3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wudushenjun;wudu1;wudu2;wudu3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuelunfawang;mojiao1;mojiao2;mojiao3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoyaozi;xiaoyao1;xiaoyao2;xiaoyao3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shitai;emei1;emei2;emei3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -518,14 +550,14 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.77734375" customWidth="1"/>
     <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -617,7 +649,9 @@
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" s="2">
         <v>101</v>
       </c>
@@ -632,7 +666,9 @@
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D6" s="2">
         <v>201</v>
       </c>
@@ -647,7 +683,9 @@
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D7" s="2">
         <v>301</v>
       </c>
@@ -662,7 +700,9 @@
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D8" s="2">
         <v>401</v>
       </c>
@@ -677,7 +717,9 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D9" s="2">
         <v>501</v>
       </c>
@@ -692,6 +734,9 @@
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D10" s="2">
         <v>601</v>
       </c>
@@ -706,6 +751,9 @@
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D11" s="2">
         <v>702</v>
       </c>
@@ -720,6 +768,9 @@
       <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D12" s="2">
         <v>801</v>
       </c>
@@ -734,7 +785,9 @@
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D13" s="2">
         <v>101</v>
       </c>
@@ -749,7 +802,9 @@
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D14" s="2">
         <v>201</v>
       </c>

--- a/Tables/Sources/gameplay/Tower/TowerEnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Tower/TowerEnemyConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Tower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4F1753-E52B-404A-AA60-F64A84D43583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762FEE23-0874-4B3E-806C-452D60677F24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10488" yWindow="972" windowWidth="20664" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>qiubujun;huashan1;huashan2;huashan3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>wudushenjun;wudu1;wudu2;wudu3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,6 +177,10 @@
   </si>
   <si>
     <t>shitai;emei1;emei2;emei3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanbuyang;huashan1;huashan2;huashan3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +550,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -701,7 +701,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2">
         <v>401</v>
@@ -718,10 +718,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -735,7 +735,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2">
         <v>601</v>
@@ -752,7 +752,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2">
         <v>702</v>
@@ -769,7 +769,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2">
         <v>801</v>

--- a/Tables/Sources/gameplay/Tower/TowerEnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Tower/TowerEnemyConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Tower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762FEE23-0874-4B3E-806C-452D60677F24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1AF5C3-6C59-4043-8723-4F1514BC7F86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2124" windowWidth="20664" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>wudushenjun;wudu1;wudu2;wudu3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>yuelunfawang;mojiao1;mojiao2;mojiao3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,6 +177,10 @@
   </si>
   <si>
     <t>shanbuyang;huashan1;huashan2;huashan3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wudushengjun;wudu1;wudu2;wudu3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +550,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -701,7 +701,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2">
         <v>401</v>
@@ -718,7 +718,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2">
         <v>502</v>
@@ -735,7 +735,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2">
         <v>601</v>
@@ -752,7 +752,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2">
         <v>702</v>
@@ -769,7 +769,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2">
         <v>801</v>

--- a/Tables/Sources/gameplay/Tower/TowerEnemyConfig.xlsx
+++ b/Tables/Sources/gameplay/Tower/TowerEnemyConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Tower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1AF5C3-6C59-4043-8723-4F1514BC7F86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E0ADE5-8ED0-4352-9555-779EE830D8FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2124" windowWidth="20664" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>yuelunfawang;mojiao1;mojiao2;mojiao3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>xiaoyaozi;xiaoyao1;xiaoyao2;xiaoyao3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,6 +177,10 @@
   </si>
   <si>
     <t>wudushengjun;wudu1;wudu2;wudu3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rilunfawang;mojiao1;mojiao2;mojiao3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +550,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -701,7 +701,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2">
         <v>401</v>
@@ -718,7 +718,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2">
         <v>502</v>
@@ -735,7 +735,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2">
         <v>601</v>
@@ -752,7 +752,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2">
         <v>702</v>
@@ -769,7 +769,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2">
         <v>801</v>
